--- a/Team-Data/2013-14/12-26-2013-14.xlsx
+++ b/Team-Data/2013-14/12-26-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,49 +733,49 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
         <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>0.552</v>
+        <v>0.536</v>
       </c>
       <c r="H2" t="n">
-        <v>48.7</v>
+        <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>39.1</v>
+        <v>38.7</v>
       </c>
       <c r="J2" t="n">
-        <v>83.09999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L2" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="M2" t="n">
-        <v>23.9</v>
+        <v>23.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.382</v>
+        <v>0.384</v>
       </c>
       <c r="O2" t="n">
         <v>15.9</v>
       </c>
       <c r="P2" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R2" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="S2" t="n">
         <v>32.2</v>
@@ -717,52 +784,52 @@
         <v>41.3</v>
       </c>
       <c r="U2" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="V2" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="W2" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="X2" t="n">
         <v>4.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AA2" t="n">
         <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.2</v>
+        <v>102.3</v>
       </c>
       <c r="AC2" t="n">
         <v>2.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI2" t="n">
         <v>9</v>
       </c>
-      <c r="AG2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>6</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>4</v>
@@ -771,19 +838,19 @@
         <v>6</v>
       </c>
       <c r="AM2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -798,10 +865,10 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
         <v>24</v>
@@ -810,13 +877,13 @@
         <v>10</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -941,7 +1008,7 @@
         <v>27</v>
       </c>
       <c r="AI3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>26</v>
@@ -965,7 +1032,7 @@
         <v>28</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>23</v>
@@ -986,7 +1053,7 @@
         <v>27</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY3" t="n">
         <v>11</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-5.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
@@ -1120,7 +1187,7 @@
         <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>12</v>
@@ -1302,13 +1369,13 @@
         <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
         <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
         <v>29</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -1472,19 +1539,19 @@
         <v>-0.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
         <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI6" t="n">
         <v>30</v>
@@ -1493,7 +1560,7 @@
         <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
         <v>28</v>
@@ -1517,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT6" t="n">
         <v>7</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -1576,121 +1643,121 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
-        <v>0.357</v>
+        <v>0.37</v>
       </c>
       <c r="H7" t="n">
-        <v>49.1</v>
+        <v>48.7</v>
       </c>
       <c r="I7" t="n">
-        <v>36.8</v>
+        <v>36.3</v>
       </c>
       <c r="J7" t="n">
-        <v>85.90000000000001</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.428</v>
+        <v>0.424</v>
       </c>
       <c r="L7" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
         <v>20.1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O7" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P7" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R7" t="n">
         <v>12</v>
       </c>
       <c r="S7" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T7" t="n">
         <v>43.6</v>
       </c>
       <c r="U7" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V7" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="W7" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z7" t="n">
         <v>19.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.5</v>
+        <v>95.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>-6</v>
+        <v>-6.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG7" t="n">
         <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN7" t="n">
         <v>18</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>17</v>
-      </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ7" t="n">
         <v>19</v>
@@ -1699,7 +1766,7 @@
         <v>8</v>
       </c>
       <c r="AS7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT7" t="n">
         <v>12</v>
@@ -1708,22 +1775,22 @@
         <v>27</v>
       </c>
       <c r="AV7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AW7" t="n">
         <v>19</v>
       </c>
       <c r="AX7" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AY7" t="n">
         <v>22</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>0.552</v>
+        <v>0.571</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
@@ -1782,61 +1849,61 @@
         <v>0.466</v>
       </c>
       <c r="L8" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M8" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.378</v>
+        <v>0.38</v>
       </c>
       <c r="O8" t="n">
-        <v>16.7</v>
+        <v>16.4</v>
       </c>
       <c r="P8" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.805</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R8" t="n">
         <v>10.1</v>
       </c>
       <c r="S8" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T8" t="n">
         <v>40.7</v>
       </c>
       <c r="U8" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="V8" t="n">
         <v>14.6</v>
       </c>
       <c r="W8" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
         <v>4.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
@@ -1845,10 +1912,10 @@
         <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
@@ -1866,13 +1933,13 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1881,13 +1948,13 @@
         <v>22</v>
       </c>
       <c r="AS8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT8" t="n">
         <v>27</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV8" t="n">
         <v>8</v>
@@ -1896,19 +1963,19 @@
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA8" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BB8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>0.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
         <v>12</v>
@@ -2048,7 +2115,7 @@
         <v>16</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
         <v>9</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -2200,25 +2267,25 @@
         <v>-0.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK10" t="n">
         <v>12</v>
@@ -2233,7 +2300,7 @@
         <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP10" t="n">
         <v>9</v>
@@ -2254,7 +2321,7 @@
         <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW10" t="n">
         <v>4</v>
@@ -2266,7 +2333,7 @@
         <v>13</v>
       </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA10" t="n">
         <v>18</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -2382,19 +2449,19 @@
         <v>3.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
         <v>10</v>
@@ -2409,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="AM11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO11" t="n">
         <v>20</v>
@@ -2436,10 +2503,10 @@
         <v>11</v>
       </c>
       <c r="AV11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX11" t="n">
         <v>12</v>
@@ -2454,7 +2521,7 @@
         <v>19</v>
       </c>
       <c r="BB11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -2486,97 +2553,97 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>0.645</v>
+        <v>0.633</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>37.6</v>
+        <v>37.8</v>
       </c>
       <c r="J12" t="n">
-        <v>78.90000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L12" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="M12" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.353</v>
+        <v>0.358</v>
       </c>
       <c r="O12" t="n">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="P12" t="n">
-        <v>31.1</v>
+        <v>30.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.698</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R12" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S12" t="n">
         <v>34.6</v>
       </c>
       <c r="T12" t="n">
-        <v>45.4</v>
+        <v>45.6</v>
       </c>
       <c r="U12" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V12" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="W12" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X12" t="n">
         <v>6.2</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.3</v>
+        <v>106.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG12" t="n">
         <v>7</v>
       </c>
-      <c r="AG12" t="n">
-        <v>6</v>
-      </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>14</v>
@@ -2588,16 +2655,16 @@
         <v>3</v>
       </c>
       <c r="AL12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -2606,7 +2673,7 @@
         <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
@@ -2618,25 +2685,25 @@
         <v>17</v>
       </c>
       <c r="AV12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX12" t="n">
         <v>2</v>
       </c>
       <c r="AY12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
         <v>17</v>
       </c>
       <c r="BA12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -2746,22 +2813,22 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
         <v>1</v>
       </c>
       <c r="AG13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="n">
         <v>24</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ13" t="n">
         <v>27</v>
@@ -2812,7 +2879,7 @@
         <v>14</v>
       </c>
       <c r="AZ13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -2850,103 +2917,103 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>0.645</v>
+        <v>0.667</v>
       </c>
       <c r="H14" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>38.3</v>
+        <v>37.9</v>
       </c>
       <c r="J14" t="n">
-        <v>82.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L14" t="n">
         <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="N14" t="n">
-        <v>0.335</v>
+        <v>0.333</v>
       </c>
       <c r="O14" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="P14" t="n">
-        <v>28.8</v>
+        <v>29.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.717</v>
+        <v>0.72</v>
       </c>
       <c r="R14" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S14" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T14" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U14" t="n">
         <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>14</v>
+        <v>14.3</v>
       </c>
       <c r="W14" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X14" t="n">
         <v>4.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Z14" t="n">
         <v>22.2</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.9</v>
+        <v>24.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>105.2</v>
+        <v>105</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
         <v>7</v>
@@ -2958,7 +3025,7 @@
         <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2976,19 +3043,19 @@
         <v>12</v>
       </c>
       <c r="AT14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -2997,7 +3064,7 @@
         <v>24</v>
       </c>
       <c r="BA14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>-4</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
         <v>18</v>
@@ -3128,16 +3195,16 @@
         <v>17</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK15" t="n">
         <v>22</v>
       </c>
       <c r="AL15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM15" t="n">
         <v>4</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>5</v>
       </c>
       <c r="AN15" t="n">
         <v>10</v>
@@ -3155,16 +3222,16 @@
         <v>24</v>
       </c>
       <c r="AS15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU15" t="n">
         <v>12</v>
       </c>
       <c r="AV15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW15" t="n">
         <v>24</v>
@@ -3176,10 +3243,10 @@
         <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="n">
         <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>0.429</v>
+        <v>0.444</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3232,43 +3299,43 @@
         <v>36.7</v>
       </c>
       <c r="J16" t="n">
-        <v>82.2</v>
+        <v>81.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L16" t="n">
         <v>4.9</v>
       </c>
       <c r="M16" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.346</v>
+        <v>0.349</v>
       </c>
       <c r="O16" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="P16" t="n">
         <v>20.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.758</v>
+        <v>0.765</v>
       </c>
       <c r="R16" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="S16" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T16" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="U16" t="n">
         <v>21.3</v>
       </c>
       <c r="V16" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W16" t="n">
         <v>7.2</v>
@@ -3280,34 +3347,34 @@
         <v>5.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="AA16" t="n">
         <v>19.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="AC16" t="n">
-        <v>-3.4</v>
+        <v>-3.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>17</v>
       </c>
       <c r="AF16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
         <v>19</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ16" t="n">
         <v>22</v>
@@ -3322,28 +3389,28 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS16" t="n">
         <v>21</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>22</v>
       </c>
       <c r="AT16" t="n">
         <v>21</v>
       </c>
       <c r="AU16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
@@ -3355,10 +3422,10 @@
         <v>28</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA16" t="n">
         <v>24</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>7.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF17" t="n">
         <v>4</v>
@@ -3504,7 +3571,7 @@
         <v>14</v>
       </c>
       <c r="AN17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO17" t="n">
         <v>12</v>
@@ -3513,7 +3580,7 @@
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3528,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="AV17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3674,7 +3741,7 @@
         <v>28</v>
       </c>
       <c r="AJ18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK18" t="n">
         <v>30</v>
@@ -3686,19 +3753,19 @@
         <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
         <v>18</v>
       </c>
       <c r="AP18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ18" t="n">
         <v>6</v>
       </c>
       <c r="AR18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>2.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3850,28 +3917,28 @@
         <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ19" t="n">
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
         <v>13</v>
       </c>
       <c r="AM19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
@@ -3886,10 +3953,10 @@
         <v>15</v>
       </c>
       <c r="AT19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -4032,10 +4099,10 @@
         <v>17</v>
       </c>
       <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
         <v>6</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>7</v>
       </c>
       <c r="AJ20" t="n">
         <v>4</v>
@@ -4050,7 +4117,7 @@
         <v>27</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
         <v>13</v>
@@ -4092,7 +4159,7 @@
         <v>16</v>
       </c>
       <c r="BB20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC20" t="n">
         <v>14</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>24</v>
@@ -4214,7 +4281,7 @@
         <v>24</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI21" t="n">
         <v>25</v>
@@ -4229,16 +4296,16 @@
         <v>7</v>
       </c>
       <c r="AM21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
       </c>
       <c r="AP21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ21" t="n">
         <v>11</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX21" t="n">
         <v>16</v>
@@ -4271,7 +4338,7 @@
         <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -4384,22 +4451,22 @@
         <v>7.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
         <v>15</v>
@@ -4414,10 +4481,10 @@
         <v>24</v>
       </c>
       <c r="AN22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP22" t="n">
         <v>5</v>
@@ -4456,7 +4523,7 @@
         <v>13</v>
       </c>
       <c r="BB22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4578,13 +4645,13 @@
         <v>27</v>
       </c>
       <c r="AH23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
         <v>19</v>
@@ -4611,7 +4678,7 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT23" t="n">
         <v>19</v>
@@ -4623,10 +4690,10 @@
         <v>20</v>
       </c>
       <c r="AW23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY23" t="n">
         <v>24</v>
@@ -4635,7 +4702,7 @@
         <v>15</v>
       </c>
       <c r="BA23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>26</v>
@@ -4799,13 +4866,13 @@
         <v>8</v>
       </c>
       <c r="AU24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX24" t="n">
         <v>26</v>
@@ -4820,7 +4887,7 @@
         <v>20</v>
       </c>
       <c r="BB24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>3.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE25" t="n">
         <v>8</v>
@@ -4945,10 +5012,10 @@
         <v>23</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK25" t="n">
         <v>8</v>
@@ -4960,7 +5027,7 @@
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
         <v>15</v>
@@ -4972,13 +5039,13 @@
         <v>21</v>
       </c>
       <c r="AR25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU25" t="n">
         <v>28</v>
@@ -4987,7 +5054,7 @@
         <v>23</v>
       </c>
       <c r="AW25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX25" t="n">
         <v>10</v>
@@ -5002,7 +5069,7 @@
         <v>15</v>
       </c>
       <c r="BB25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -5034,85 +5101,85 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F26" t="n">
         <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>0.828</v>
+        <v>0.821</v>
       </c>
       <c r="H26" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="J26" t="n">
-        <v>87.7</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="M26" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="N26" t="n">
-        <v>0.403</v>
+        <v>0.405</v>
       </c>
       <c r="O26" t="n">
         <v>18.4</v>
       </c>
       <c r="P26" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.82</v>
+        <v>0.819</v>
       </c>
       <c r="R26" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="S26" t="n">
-        <v>33.1</v>
+        <v>32.7</v>
       </c>
       <c r="T26" t="n">
-        <v>46.4</v>
+        <v>45.9</v>
       </c>
       <c r="U26" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="V26" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W26" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="X26" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y26" t="n">
         <v>3.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.6</v>
+        <v>18.9</v>
       </c>
       <c r="AA26" t="n">
         <v>20.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>108.7</v>
+        <v>108.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
@@ -5124,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5139,10 +5206,10 @@
         <v>1</v>
       </c>
       <c r="AM26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO26" t="n">
         <v>11</v>
@@ -5157,22 +5224,22 @@
         <v>4</v>
       </c>
       <c r="AS26" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4</v>
       </c>
       <c r="AD27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5306,13 +5373,13 @@
         <v>26</v>
       </c>
       <c r="AH27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>16</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>17</v>
       </c>
       <c r="AK27" t="n">
         <v>20</v>
@@ -5351,7 +5418,7 @@
         <v>9</v>
       </c>
       <c r="AW27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -5398,61 +5465,61 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" t="n">
         <v>7</v>
       </c>
       <c r="G28" t="n">
-        <v>0.767</v>
+        <v>0.759</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="J28" t="n">
-        <v>83.90000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.485</v>
+        <v>0.484</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.398</v>
+        <v>0.397</v>
       </c>
       <c r="O28" t="n">
-        <v>14</v>
+        <v>13.3</v>
       </c>
       <c r="P28" t="n">
-        <v>18.4</v>
+        <v>17.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.762</v>
+        <v>0.756</v>
       </c>
       <c r="R28" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="T28" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U28" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="V28" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W28" t="n">
         <v>8</v>
@@ -5461,25 +5528,25 @@
         <v>4.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.7</v>
+        <v>17.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.6</v>
+        <v>103.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AD28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE28" t="n">
         <v>4</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>2</v>
       </c>
       <c r="AF28" t="n">
         <v>5</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5512,10 +5579,10 @@
         <v>30</v>
       </c>
       <c r="AP28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AR28" t="n">
         <v>28</v>
@@ -5524,7 +5591,7 @@
         <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -5670,10 +5737,10 @@
         <v>20</v>
       </c>
       <c r="AH29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
         <v>14</v>
@@ -5706,7 +5773,7 @@
         <v>20</v>
       </c>
       <c r="AT29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU29" t="n">
         <v>29</v>
@@ -5718,7 +5785,7 @@
         <v>22</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
         <v>17</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -5858,7 +5925,7 @@
         <v>26</v>
       </c>
       <c r="AJ30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK30" t="n">
         <v>24</v>
@@ -5894,7 +5961,7 @@
         <v>25</v>
       </c>
       <c r="AV30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
@@ -6028,7 +6095,7 @@
         <v>17</v>
       </c>
       <c r="AF31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG31" t="n">
         <v>14</v>
@@ -6040,7 +6107,7 @@
         <v>15</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
         <v>17</v>
@@ -6055,7 +6122,7 @@
         <v>4</v>
       </c>
       <c r="AO31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP31" t="n">
         <v>20</v>
@@ -6067,7 +6134,7 @@
         <v>15</v>
       </c>
       <c r="AS31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT31" t="n">
         <v>20</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-26-2013-14</t>
+          <t>2013-12-26</t>
         </is>
       </c>
     </row>
